--- a/config/project/demo/报表模板.xlsx
+++ b/config/project/demo/报表模板.xlsx
@@ -64,9 +64,6 @@
     <t>value1</t>
   </si>
   <si>
-    <t>result1</t>
-  </si>
-  <si>
     <t>demo2</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>result9</t>
+  </si>
+  <si>
+    <t>result{1,2,3,4}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1207,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1290,16 +1291,16 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,16 +1308,16 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,16 +1325,16 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1341,16 +1342,16 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,16 +1359,16 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,16 +1376,16 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,24 +1393,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/config/project/demo/报表模板.xlsx
+++ b/config/project/demo/报表模板.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Demo 测试报表</t>
   </si>
@@ -134,6 +134,17 @@
   </si>
   <si>
     <t>result{1,2,3,4}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1220,7 @@
   <dimension ref="A1:IU16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1240,7 @@
     <col min="13" max="255" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1251,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1262,8 +1273,11 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1285,8 +1299,11 @@
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1302,8 +1319,11 @@
       <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1319,8 +1339,11 @@
       <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1336,8 +1359,11 @@
       <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1353,8 +1379,11 @@
       <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1370,8 +1399,11 @@
       <c r="G8" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1387,8 +1419,11 @@
       <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1404,32 +1439,38 @@
       <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="9"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="9"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
